--- a/export_lista_fiis_investimentos['Logística'].xlsx
+++ b/export_lista_fiis_investimentos['Logística'].xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,26 +622,26 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LVBI11</t>
+          <t>GTLG11</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>101,00</t>
+          <t>100,00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FUNDO DE INVESTIMENTO IMOBILIARIO - VBI LOGISTICO</t>
+          <t>GTIS BRAZIL LOGISTICS FUNDO DE INVESTIMENTO IMOBILIÁRIO - FII</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11/02/2022</t>
+          <t>09/02/2022</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -650,53 +650,53 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>7.3</v>
+        <v>2.8</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>7.39</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>11.775.177</t>
+          <t>7.173.000</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2337140</v>
+        <v>526631</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>RBRL11</t>
+          <t>LVBI11</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>86,00</t>
+          <t>101,00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>RBR LOG FUNDO DE INVESTIMENTO IMOBILIÁRIO</t>
+          <t>FUNDO DE INVESTIMENTO IMOBILIARIO - VBI LOGISTICO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -710,58 +710,58 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>9.800000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>8.29</t>
+          <t>7.39</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>6.687.035</t>
+          <t>11.775.177</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>778615</v>
+        <v>2337140</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>266</v>
+        <v>207</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>VILG11</t>
+          <t>RBLG11</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>101,50</t>
+          <t>87,10</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VINCI LOGÍSTICA FUNDO DE INVESTIMENTO IMOBILIÁRIO - FII</t>
+          <t>RB CAPITAL LOGÍSTICO FUNDO DE INVESTIMENTO IMOBILIÁRIO - FII</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11/02/2022</t>
+          <t>10/02/2022</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -770,34 +770,214 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>7.1</v>
+        <v>7.9</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>6.5</v>
+        <v>4.8</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>640.199</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>374142</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>RBRL11</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>86,00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>RBR LOG FUNDO DE INVESTIMENTO IMOBILIÁRIO</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>11/02/2022</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>6</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>6.687.035</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>778615</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>VILG11</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>101,50</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VINCI LOGÍSTICA FUNDO DE INVESTIMENTO IMOBILIÁRIO - FII</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>11/02/2022</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>0.89</t>
         </is>
       </c>
-      <c r="L6" t="n">
+      <c r="L8" t="n">
         <v>15</v>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>14.997.396</t>
         </is>
       </c>
-      <c r="N6" t="n">
+      <c r="N8" t="n">
         <v>3936630</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>VTLT11</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>90,20</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>FUNDO DE INVESTIMENTO IMOBILIÁRIO VOTORANTIM LOGÍSTICA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>11/02/2022</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2.115.000</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>295629</v>
       </c>
     </row>
   </sheetData>
